--- a/database/Postgresql Table Creation Scripts/EV simple projections.xlsx
+++ b/database/Postgresql Table Creation Scripts/EV simple projections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2540" windowWidth="24460" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="5500" yWindow="2320" windowWidth="24460" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database/Postgresql Table Creation Scripts/EV simple projections.xlsx
+++ b/database/Postgresql Table Creation Scripts/EV simple projections.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthias/Dropbox/research/shared/switch-hawaii/switch-hawaii-studies/database/Postgresql Table Creation Scripts/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="2320" windowWidth="24460" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25160" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HECO" sheetId="1" r:id="rId1"/>
+    <sheet name="BAU" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="EV_Adoption">Sheet1!$A$6:$E$45</definedName>
-    <definedName name="Year">Sheet1!$A$7:$E$45</definedName>
+    <definedName name="EV_Adoption">HECO!$A$6:$F$45</definedName>
+    <definedName name="Year">HECO!$A$7:$F$45</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Blazing a Bold Frontier</t>
   </si>
@@ -71,6 +67,81 @@
   <si>
     <t>So we extend it just by flipping the curve and continuing toward saturation 21 years further along.</t>
   </si>
+  <si>
+    <t>Business as Usual</t>
+  </si>
+  <si>
+    <t>Data from http://dbedt.hawaii.gov/economic/energy-trends-2/</t>
+  </si>
+  <si>
+    <t>Specifically, http://files.hawaii.gov/dbedt/economic/data_reports/energy-trends/Monthly_Energy_Data.xlsx</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Registered Vehicles, Taxable</t>
+  </si>
+  <si>
+    <t>Passenger, Electric</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Passenger, Diesel</t>
+  </si>
+  <si>
+    <t>Passenger, Gasoline</t>
+  </si>
+  <si>
+    <t>Passenger, Hybrid</t>
+  </si>
+  <si>
+    <t>Passenger, Misc Fuel</t>
+  </si>
+  <si>
+    <t>Freight, Electric</t>
+  </si>
+  <si>
+    <t>Freight, Diesel</t>
+  </si>
+  <si>
+    <t>Freight, Gasoline</t>
+  </si>
+  <si>
+    <t>Freight, Hybrid</t>
+  </si>
+  <si>
+    <t>Freight, Misc Fuel</t>
+  </si>
+  <si>
+    <t>Annual EV growth</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>2007 vehicles</t>
+  </si>
+  <si>
+    <t>2007 miles (from Clean Cities on prev page)</t>
+  </si>
+  <si>
+    <t>miles per vehicle per year</t>
+  </si>
+  <si>
+    <t>GWh per vehicle per year (at 4 mi/kWh)</t>
+  </si>
+  <si>
+    <t>energy (GWh)</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +188,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +222,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -147,25 +234,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,7 +374,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>HECO!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -222,7 +388,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$45</c:f>
+              <c:f>HECO!$A$7:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -348,7 +514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$45</c:f>
+              <c:f>HECO!$B$7:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -479,7 +645,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>HECO!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -493,7 +659,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$45</c:f>
+              <c:f>HECO!$A$7:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -619,7 +785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$28</c:f>
+              <c:f>HECO!$C$7:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -699,7 +865,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>HECO!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -713,7 +879,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$45</c:f>
+              <c:f>HECO!$A$7:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -839,7 +1005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$45</c:f>
+              <c:f>HECO!$D$7:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -970,7 +1136,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
+              <c:f>HECO!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,7 +1150,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$45</c:f>
+              <c:f>HECO!$A$7:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -1110,7 +1276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$45</c:f>
+              <c:f>HECO!$E$7:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -1230,6 +1396,277 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>625.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HECO!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business as Usual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HECO!$A$7:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2041.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2042.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2043.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2044.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2045.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2046.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2047.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2049.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HECO!$F$7:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1.27865594474787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.464901651600982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.775618291128665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.054274235876535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.097189777831655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.518547246403402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.93990471497515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.3612621835469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.78261965211864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.20397712069039</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.62533458926214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.04669205783389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.46804952640563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.88940699497738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.31076446354912</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.73212193212087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.15347940069261</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.57483686926436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.9961943378361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.41755180640785</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.8389092749796</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.26026674355134</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.68162421212309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.10298168069484</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.52433914926659</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.94569661783834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.36705408641009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.78841155498184</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.2097690235536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.63112649212534</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.05248396069709</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.47384142926884</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45.89519889784059</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.31655636641234</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.73791383498408</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.15927130355583</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.58062877212758</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53.00198624069933</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54.42334370927108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,12 +1681,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094083568"/>
-        <c:axId val="-2094080480"/>
+        <c:axId val="1926360200"/>
+        <c:axId val="1926878168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094083568"/>
+        <c:axId val="1926360200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094080480"/>
+        <c:crossAx val="1926878168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1267,7 +1705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094080480"/>
+        <c:axId val="1926878168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1716,1200 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094083568"/>
+        <c:crossAx val="1926360200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BAU!$C$4:$DU$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="123"/>
+                <c:pt idx="0">
+                  <c:v>38718.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38749.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38777.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38808.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38838.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38869.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38899.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38930.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38961.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38991.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39022.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39052.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39083.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39114.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39142.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39203.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39387.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39569.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39753.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39934.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40118.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40299.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40483.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40575.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40664.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40756.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40848.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40940.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41030.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41122.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41214.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41306.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41395.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41487.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41579.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41671.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41791.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41821.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41852.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41883.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41913.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41944.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41974.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42005.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42036.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42064.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42095.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42125.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42156.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42186.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42217.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42248.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42278.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42309.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42339.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42370.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42401.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>42430.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BAU!$C$6:$DU$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="123"/>
+                <c:pt idx="0">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>526.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>547.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>565.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>614.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>737.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>785.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>845.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>972.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1009.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1093.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1178.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1307.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1371.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1427.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1498.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1560.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1602.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1661.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1716.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1757.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1808.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1852.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1924.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2084.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2147.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2226.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2275.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2318.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2382.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2458.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2498.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2571.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2620.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2652.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2680.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2763.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2824.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2893.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2957.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3013.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3088.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3188.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3233.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060290808"/>
+        <c:axId val="2092041992"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2060290808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092041992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2092041992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2060290808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BAU!$A$25:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2031.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2034.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2035.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2036.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2037.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2041.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2042.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2043.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2044.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2045.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2046.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2047.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2049.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BAU!$C$25:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1307.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2680.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3233.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3986.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4740.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5494.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6247.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7001.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7755.000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8508.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9262.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10016.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10769.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11523.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13030.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13784.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15291.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16045.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17552.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18306.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19060.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19813.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20567.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21321.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22074.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22828.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23582.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24335.66666666668</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25089.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25843.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26596.66666666668</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27350.33333333335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28104.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28857.66666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1927010184"/>
+        <c:axId val="1927011592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1927010184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1927011592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927011592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1927010184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,16 +2935,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1327,6 +2958,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1657,35 +3353,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1701,11 +3397,14 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -1721,17 +3420,21 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7">
+        <f>BAU!D25</f>
+        <v>1.2786559447478696</v>
+      </c>
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>2007</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -1747,18 +3450,21 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" t="s">
+      <c r="F8">
+        <f>BAU!D26</f>
+        <v>2.4649016516009818</v>
+      </c>
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>13142000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>15610300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -1774,18 +3480,21 @@
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" t="s">
+      <c r="F9">
+        <f>BAU!D27</f>
+        <v>3.7756182911286653</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1801,20 +3510,23 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" t="s">
+      <c r="F10">
+        <f>BAU!D28</f>
+        <v>5.0542742358765347</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="H10">
-        <f>H8*365/H9/1000000</f>
+      <c r="J10">
+        <f>J8*365/J9/1000000</f>
         <v>1199.2075</v>
       </c>
-      <c r="I10">
-        <f>I8*365/I9/1000000</f>
+      <c r="K10">
+        <f>K8*365/K9/1000000</f>
         <v>1424.439875</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -1830,11 +3542,14 @@
       <c r="E11">
         <v>13</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11">
+        <f>BAU!D29</f>
+        <v>6.0971897778316553</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -1850,11 +3565,14 @@
       <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="3">
+        <f>BAU!D30</f>
+        <v>7.5185472464034024</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1870,11 +3588,14 @@
       <c r="E13">
         <v>27</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="3">
+        <f>BAU!D31</f>
+        <v>8.9399047149751496</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -1890,11 +3611,14 @@
       <c r="E14">
         <v>36</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="3">
+        <f>BAU!D32</f>
+        <v>10.361262183546897</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -1910,11 +3634,14 @@
       <c r="E15">
         <v>46</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="3">
+        <f>BAU!D33</f>
+        <v>11.782619652118644</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1930,11 +3657,14 @@
       <c r="E16">
         <v>58</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="3">
+        <f>BAU!D34</f>
+        <v>13.203977120690391</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -1950,11 +3680,14 @@
       <c r="E17">
         <v>72</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="3">
+        <f>BAU!D35</f>
+        <v>14.625334589262138</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -1970,11 +3703,14 @@
       <c r="E18">
         <v>88</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="3">
+        <f>BAU!D36</f>
+        <v>16.046692057833887</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>2024</v>
       </c>
@@ -1990,11 +3726,14 @@
       <c r="E19">
         <v>105</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="3">
+        <f>BAU!D37</f>
+        <v>17.468049526405633</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>2025</v>
       </c>
@@ -2010,11 +3749,14 @@
       <c r="E20">
         <v>124</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="F20" s="3">
+        <f>BAU!D38</f>
+        <v>18.889406994977378</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>2026</v>
       </c>
@@ -2030,11 +3772,14 @@
       <c r="E21">
         <v>145</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="3">
+        <f>BAU!D39</f>
+        <v>20.310764463549123</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>2027</v>
       </c>
@@ -2050,11 +3795,14 @@
       <c r="E22">
         <v>167</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="3">
+        <f>BAU!D40</f>
+        <v>21.732121932120869</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>2028</v>
       </c>
@@ -2070,11 +3818,14 @@
       <c r="E23">
         <v>190</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="F23" s="3">
+        <f>BAU!D41</f>
+        <v>23.153479400692614</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>2029</v>
       </c>
@@ -2090,11 +3841,14 @@
       <c r="E24">
         <v>214</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="F24" s="3">
+        <f>BAU!D42</f>
+        <v>24.57483686926436</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>2030</v>
       </c>
@@ -2110,11 +3864,14 @@
       <c r="E25">
         <v>239</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="F25" s="3">
+        <f>BAU!D43</f>
+        <v>25.996194337836105</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>2031</v>
       </c>
@@ -2130,11 +3887,14 @@
       <c r="E26">
         <v>266</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="F26" s="3">
+        <f>BAU!D44</f>
+        <v>27.417551806407854</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2032</v>
       </c>
@@ -2150,24 +3910,28 @@
       <c r="E27">
         <v>292</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
+        <f>BAU!D45</f>
+        <v>28.838909274979599</v>
+      </c>
+      <c r="I27" s="2">
         <f>B27-B26</f>
         <v>52</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" ref="G27:I28" si="0">C27-C26</f>
+      <c r="J27" s="2">
+        <f>C27-C26</f>
         <v>26</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
+      <c r="K27" s="2">
+        <f>D27-D26</f>
         <v>13</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
+      <c r="L27" s="2">
+        <f>E27-E26</f>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>2033</v>
       </c>
@@ -2183,432 +3947,6624 @@
       <c r="E28">
         <v>319</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
+        <f>BAU!D46</f>
+        <v>30.260266743551345</v>
+      </c>
+      <c r="I28" s="2">
         <f>B28-B27</f>
         <v>53</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="0"/>
+      <c r="J28" s="2">
+        <f>C28-C27</f>
         <v>27</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
+      <c r="K28" s="2">
+        <f>D28-D27</f>
         <v>13</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
+      <c r="L28" s="2">
+        <f>E28-E27</f>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <f>A28+1</f>
         <v>2034</v>
       </c>
       <c r="B29" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A29)</f>
+        <f t="shared" ref="B29:D45" si="0">2*B$28-INDEX(B$7:B$28, 2055-$A29)</f>
         <v>690</v>
       </c>
       <c r="C29" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A29)</f>
+        <f t="shared" si="0"/>
         <v>346</v>
       </c>
       <c r="D29" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A29)</f>
+        <f t="shared" si="0"/>
         <v>172</v>
       </c>
       <c r="E29" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A29)</f>
         <v>346</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
+        <f>BAU!D47</f>
+        <v>31.681624212123094</v>
+      </c>
+      <c r="I29" s="2">
         <f>B29-B28</f>
         <v>53</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" ref="G29" si="1">C29-C28</f>
+      <c r="J29" s="2">
+        <f>C29-C28</f>
         <v>27</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" ref="H29" si="2">D29-D28</f>
+      <c r="K29" s="2">
+        <f>D29-D28</f>
         <v>13</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" ref="I29" si="3">E29-E28</f>
+      <c r="L29" s="2">
+        <f>E29-E28</f>
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
-        <f t="shared" ref="A30:A45" si="4">A29+1</f>
+        <f t="shared" ref="A30:A45" si="1">A29+1</f>
         <v>2035</v>
       </c>
       <c r="B30" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A30)</f>
+        <f t="shared" si="0"/>
         <v>742</v>
       </c>
       <c r="C30" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A30)</f>
+        <f t="shared" si="0"/>
         <v>372</v>
       </c>
       <c r="D30" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A30)</f>
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
       <c r="E30" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A30)</f>
         <v>372</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
+        <f>BAU!D48</f>
+        <v>33.102981680694839</v>
+      </c>
+      <c r="I30" s="2">
         <f>B30-B29</f>
         <v>52</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" ref="G30" si="5">C30-C29</f>
+      <c r="J30" s="2">
+        <f>C30-C29</f>
         <v>26</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" ref="H30" si="6">D30-D29</f>
+      <c r="K30" s="2">
+        <f>D30-D29</f>
         <v>13</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" ref="I30" si="7">E30-E29</f>
+      <c r="L30" s="2">
+        <f>E30-E29</f>
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2036</v>
       </c>
       <c r="B31" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A31)</f>
+        <f t="shared" si="0"/>
         <v>795</v>
       </c>
       <c r="C31" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A31)</f>
+        <f t="shared" si="0"/>
         <v>399</v>
       </c>
       <c r="D31" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A31)</f>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="E31" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A31)</f>
         <v>399</v>
       </c>
+      <c r="F31" s="3">
+        <f>BAU!D49</f>
+        <v>34.524339149266595</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2037</v>
       </c>
       <c r="B32" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A32)</f>
+        <f t="shared" si="0"/>
         <v>846</v>
       </c>
       <c r="C32" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A32)</f>
+        <f t="shared" si="0"/>
         <v>424</v>
       </c>
       <c r="D32" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A32)</f>
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
       <c r="E32" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A32)</f>
         <v>424</v>
       </c>
+      <c r="F32" s="3">
+        <f>BAU!D50</f>
+        <v>35.945696617838344</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2038</v>
       </c>
       <c r="B33" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A33)</f>
+        <f t="shared" si="0"/>
         <v>895</v>
       </c>
       <c r="C33" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A33)</f>
+        <f t="shared" si="0"/>
         <v>448</v>
       </c>
       <c r="D33" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A33)</f>
+        <f t="shared" si="0"/>
         <v>223</v>
       </c>
       <c r="E33" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A33)</f>
         <v>448</v>
       </c>
+      <c r="F33" s="3">
+        <f>BAU!D51</f>
+        <v>37.367054086410093</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2039</v>
       </c>
       <c r="B34" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A34)</f>
+        <f t="shared" si="0"/>
         <v>941</v>
       </c>
       <c r="C34" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A34)</f>
+        <f t="shared" si="0"/>
         <v>471</v>
       </c>
       <c r="D34" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A34)</f>
+        <f t="shared" si="0"/>
         <v>235</v>
       </c>
       <c r="E34" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A34)</f>
         <v>471</v>
       </c>
+      <c r="F34" s="3">
+        <f>BAU!D52</f>
+        <v>38.788411554981842</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="B35" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A35)</f>
+        <f t="shared" si="0"/>
         <v>984</v>
       </c>
       <c r="C35" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A35)</f>
+        <f t="shared" si="0"/>
         <v>493</v>
       </c>
       <c r="D35" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A35)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="E35" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A35)</f>
         <v>493</v>
       </c>
+      <c r="F35" s="3">
+        <f>BAU!D53</f>
+        <v>40.209769023553591</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2041</v>
       </c>
       <c r="B36" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A36)</f>
+        <f t="shared" si="0"/>
         <v>1026</v>
       </c>
       <c r="C36" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A36)</f>
+        <f t="shared" si="0"/>
         <v>514</v>
       </c>
       <c r="D36" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A36)</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="E36" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A36)</f>
         <v>514</v>
       </c>
+      <c r="F36" s="3">
+        <f>BAU!D54</f>
+        <v>41.63112649212534</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2042</v>
       </c>
       <c r="B37" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A37)</f>
+        <f t="shared" si="0"/>
         <v>1063</v>
       </c>
       <c r="C37" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A37)</f>
+        <f t="shared" si="0"/>
         <v>533</v>
       </c>
       <c r="D37" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A37)</f>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="E37" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A37)</f>
         <v>533</v>
       </c>
+      <c r="F37" s="3">
+        <f>BAU!D55</f>
+        <v>43.052483960697089</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2043</v>
       </c>
       <c r="B38" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A38)</f>
+        <f t="shared" si="0"/>
         <v>1098</v>
       </c>
       <c r="C38" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A38)</f>
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
       <c r="D38" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A38)</f>
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
       <c r="E38" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A38)</f>
         <v>550</v>
       </c>
+      <c r="F38" s="3">
+        <f>BAU!D56</f>
+        <v>44.473841429268838</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2044</v>
       </c>
       <c r="B39" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A39)</f>
+        <f t="shared" si="0"/>
         <v>1129</v>
       </c>
       <c r="C39" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A39)</f>
+        <f t="shared" si="0"/>
         <v>566</v>
       </c>
       <c r="D39" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A39)</f>
+        <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="E39" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A39)</f>
         <v>566</v>
       </c>
+      <c r="F39" s="3">
+        <f>BAU!D57</f>
+        <v>45.895198897840586</v>
+      </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2045</v>
       </c>
       <c r="B40" s="4">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A40)</f>
+        <f t="shared" si="0"/>
         <v>1157</v>
       </c>
       <c r="C40" s="4">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A40)</f>
+        <f t="shared" si="0"/>
         <v>580</v>
       </c>
       <c r="D40" s="4">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A40)</f>
+        <f t="shared" si="0"/>
         <v>289</v>
       </c>
       <c r="E40" s="4">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A40)</f>
         <v>580</v>
       </c>
+      <c r="F40" s="4">
+        <f>BAU!D58</f>
+        <v>47.316556366412335</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2046</v>
       </c>
       <c r="B41" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A41)</f>
+        <f t="shared" si="0"/>
         <v>1182</v>
       </c>
       <c r="C41" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A41)</f>
+        <f t="shared" si="0"/>
         <v>592</v>
       </c>
       <c r="D41" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A41)</f>
+        <f t="shared" si="0"/>
         <v>295</v>
       </c>
       <c r="E41" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A41)</f>
         <v>592</v>
       </c>
+      <c r="F41" s="3">
+        <f>BAU!D59</f>
+        <v>48.737913834984084</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2047</v>
       </c>
       <c r="B42" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A42)</f>
+        <f t="shared" si="0"/>
         <v>1203</v>
       </c>
       <c r="C42" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A42)</f>
+        <f t="shared" si="0"/>
         <v>602</v>
       </c>
       <c r="D42" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A42)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E42" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A42)</f>
         <v>602</v>
       </c>
+      <c r="F42" s="3">
+        <f>BAU!D60</f>
+        <v>50.159271303555833</v>
+      </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="B43" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A43)</f>
+        <f t="shared" si="0"/>
         <v>1220</v>
       </c>
       <c r="C43" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A43)</f>
+        <f t="shared" si="0"/>
         <v>611</v>
       </c>
       <c r="D43" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A43)</f>
+        <f t="shared" si="0"/>
         <v>304</v>
       </c>
       <c r="E43" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A43)</f>
         <v>611</v>
       </c>
+      <c r="F43" s="3">
+        <f>BAU!D61</f>
+        <v>51.580628772127582</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2049</v>
       </c>
       <c r="B44" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A44)</f>
+        <f t="shared" si="0"/>
         <v>1235</v>
       </c>
       <c r="C44" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A44)</f>
+        <f t="shared" si="0"/>
         <v>618</v>
       </c>
       <c r="D44" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A44)</f>
+        <f t="shared" si="0"/>
         <v>308</v>
       </c>
       <c r="E44" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A44)</f>
         <v>618</v>
       </c>
+      <c r="F44" s="3">
+        <f>BAU!D62</f>
+        <v>53.001986240699331</v>
+      </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2050</v>
       </c>
       <c r="B45" s="3">
-        <f>2*B$28-INDEX(B$7:B$28, 2055-$A45)</f>
+        <f t="shared" si="0"/>
         <v>1247</v>
       </c>
       <c r="C45" s="3">
-        <f>2*C$28-INDEX(C$7:C$28, 2055-$A45)</f>
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="D45" s="3">
-        <f>2*D$28-INDEX(D$7:D$28, 2055-$A45)</f>
+        <f t="shared" si="0"/>
         <v>311</v>
       </c>
       <c r="E45" s="3">
         <f>2*E$28-INDEX(E$7:E$28, 2055-$A45)</f>
         <v>625</v>
+      </c>
+      <c r="F45" s="3">
+        <f>BAU!D63</f>
+        <v>54.42334370927108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DU63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:125">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:125">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:125">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>38718</v>
+      </c>
+      <c r="D4" s="6">
+        <v>38749</v>
+      </c>
+      <c r="E4" s="6">
+        <v>38777</v>
+      </c>
+      <c r="F4" s="6">
+        <v>38808</v>
+      </c>
+      <c r="G4" s="6">
+        <v>38838</v>
+      </c>
+      <c r="H4" s="6">
+        <v>38869</v>
+      </c>
+      <c r="I4" s="6">
+        <v>38899</v>
+      </c>
+      <c r="J4" s="6">
+        <v>38930</v>
+      </c>
+      <c r="K4" s="6">
+        <v>38961</v>
+      </c>
+      <c r="L4" s="6">
+        <v>38991</v>
+      </c>
+      <c r="M4" s="6">
+        <v>39022</v>
+      </c>
+      <c r="N4" s="6">
+        <v>39052</v>
+      </c>
+      <c r="O4" s="6">
+        <v>39083</v>
+      </c>
+      <c r="P4" s="6">
+        <v>39114</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>39142</v>
+      </c>
+      <c r="R4" s="6">
+        <v>39173</v>
+      </c>
+      <c r="S4" s="6">
+        <v>39203</v>
+      </c>
+      <c r="T4" s="6">
+        <v>39234</v>
+      </c>
+      <c r="U4" s="6">
+        <v>39264</v>
+      </c>
+      <c r="V4" s="6">
+        <v>39295</v>
+      </c>
+      <c r="W4" s="6">
+        <v>39326</v>
+      </c>
+      <c r="X4" s="6">
+        <v>39356</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>39387</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>39417</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>39448</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>39479</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>39508</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>39539</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>39569</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>39600</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>39630</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>39661</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>39692</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>39722</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>39753</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>39783</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>39814</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>39845</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>39873</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>39904</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>39934</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>39965</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>39995</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>40026</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>40057</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>40087</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>40118</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>40148</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>40179</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>40210</v>
+      </c>
+      <c r="BA4" s="6">
+        <v>40238</v>
+      </c>
+      <c r="BB4" s="6">
+        <v>40269</v>
+      </c>
+      <c r="BC4" s="6">
+        <v>40299</v>
+      </c>
+      <c r="BD4" s="6">
+        <v>40330</v>
+      </c>
+      <c r="BE4" s="6">
+        <v>40360</v>
+      </c>
+      <c r="BF4" s="6">
+        <v>40391</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>40422</v>
+      </c>
+      <c r="BH4" s="6">
+        <v>40452</v>
+      </c>
+      <c r="BI4" s="6">
+        <v>40483</v>
+      </c>
+      <c r="BJ4" s="6">
+        <v>40513</v>
+      </c>
+      <c r="BK4" s="6">
+        <v>40544</v>
+      </c>
+      <c r="BL4" s="6">
+        <v>40575</v>
+      </c>
+      <c r="BM4" s="6">
+        <v>40603</v>
+      </c>
+      <c r="BN4" s="6">
+        <v>40634</v>
+      </c>
+      <c r="BO4" s="6">
+        <v>40664</v>
+      </c>
+      <c r="BP4" s="6">
+        <v>40695</v>
+      </c>
+      <c r="BQ4" s="6">
+        <v>40725</v>
+      </c>
+      <c r="BR4" s="6">
+        <v>40756</v>
+      </c>
+      <c r="BS4" s="6">
+        <v>40787</v>
+      </c>
+      <c r="BT4" s="6">
+        <v>40817</v>
+      </c>
+      <c r="BU4" s="6">
+        <v>40848</v>
+      </c>
+      <c r="BV4" s="6">
+        <v>40878</v>
+      </c>
+      <c r="BW4" s="6">
+        <v>40909</v>
+      </c>
+      <c r="BX4" s="6">
+        <v>40940</v>
+      </c>
+      <c r="BY4" s="6">
+        <v>40969</v>
+      </c>
+      <c r="BZ4" s="6">
+        <v>41000</v>
+      </c>
+      <c r="CA4" s="6">
+        <v>41030</v>
+      </c>
+      <c r="CB4" s="6">
+        <v>41061</v>
+      </c>
+      <c r="CC4" s="6">
+        <v>41091</v>
+      </c>
+      <c r="CD4" s="6">
+        <v>41122</v>
+      </c>
+      <c r="CE4" s="6">
+        <v>41153</v>
+      </c>
+      <c r="CF4" s="6">
+        <v>41183</v>
+      </c>
+      <c r="CG4" s="6">
+        <v>41214</v>
+      </c>
+      <c r="CH4" s="6">
+        <v>41244</v>
+      </c>
+      <c r="CI4" s="6">
+        <v>41275</v>
+      </c>
+      <c r="CJ4" s="6">
+        <v>41306</v>
+      </c>
+      <c r="CK4" s="6">
+        <v>41334</v>
+      </c>
+      <c r="CL4" s="6">
+        <v>41365</v>
+      </c>
+      <c r="CM4" s="6">
+        <v>41395</v>
+      </c>
+      <c r="CN4" s="6">
+        <v>41426</v>
+      </c>
+      <c r="CO4" s="6">
+        <v>41456</v>
+      </c>
+      <c r="CP4" s="6">
+        <v>41487</v>
+      </c>
+      <c r="CQ4" s="6">
+        <v>41518</v>
+      </c>
+      <c r="CR4" s="6">
+        <v>41548</v>
+      </c>
+      <c r="CS4" s="6">
+        <v>41579</v>
+      </c>
+      <c r="CT4" s="6">
+        <v>41609</v>
+      </c>
+      <c r="CU4" s="6">
+        <v>41640</v>
+      </c>
+      <c r="CV4" s="6">
+        <v>41671</v>
+      </c>
+      <c r="CW4" s="6">
+        <v>41699</v>
+      </c>
+      <c r="CX4" s="6">
+        <v>41730</v>
+      </c>
+      <c r="CY4" s="6">
+        <v>41760</v>
+      </c>
+      <c r="CZ4" s="6">
+        <v>41791</v>
+      </c>
+      <c r="DA4" s="6">
+        <v>41821</v>
+      </c>
+      <c r="DB4" s="6">
+        <v>41852</v>
+      </c>
+      <c r="DC4" s="6">
+        <v>41883</v>
+      </c>
+      <c r="DD4" s="6">
+        <v>41913</v>
+      </c>
+      <c r="DE4" s="6">
+        <v>41944</v>
+      </c>
+      <c r="DF4" s="6">
+        <v>41974</v>
+      </c>
+      <c r="DG4" s="6">
+        <v>42005</v>
+      </c>
+      <c r="DH4" s="6">
+        <v>42036</v>
+      </c>
+      <c r="DI4" s="6">
+        <v>42064</v>
+      </c>
+      <c r="DJ4" s="6">
+        <v>42095</v>
+      </c>
+      <c r="DK4" s="6">
+        <v>42125</v>
+      </c>
+      <c r="DL4" s="6">
+        <v>42156</v>
+      </c>
+      <c r="DM4" s="6">
+        <v>42186</v>
+      </c>
+      <c r="DN4" s="6">
+        <v>42217</v>
+      </c>
+      <c r="DO4" s="6">
+        <v>42248</v>
+      </c>
+      <c r="DP4" s="6">
+        <v>42278</v>
+      </c>
+      <c r="DQ4" s="6">
+        <v>42309</v>
+      </c>
+      <c r="DR4" s="6">
+        <v>42339</v>
+      </c>
+      <c r="DS4" s="6">
+        <v>42370</v>
+      </c>
+      <c r="DT4" s="6">
+        <v>42401</v>
+      </c>
+      <c r="DU4" s="6">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:125">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+    </row>
+    <row r="6" spans="1:125">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1">
+        <v>70</v>
+      </c>
+      <c r="K6" s="1">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1">
+        <v>74</v>
+      </c>
+      <c r="M6" s="1">
+        <v>75</v>
+      </c>
+      <c r="N6" s="1">
+        <v>74</v>
+      </c>
+      <c r="O6" s="1">
+        <v>78</v>
+      </c>
+      <c r="P6" s="1">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>103</v>
+      </c>
+      <c r="R6" s="1">
+        <v>105</v>
+      </c>
+      <c r="S6" s="1">
+        <v>103</v>
+      </c>
+      <c r="T6" s="1">
+        <v>102</v>
+      </c>
+      <c r="U6" s="1">
+        <v>101</v>
+      </c>
+      <c r="V6" s="1">
+        <v>98</v>
+      </c>
+      <c r="W6" s="1">
+        <v>102</v>
+      </c>
+      <c r="X6" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>101</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>101</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>101</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>105</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>109</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>110</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>109</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>109</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>111</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>115</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>116</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>111</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>105</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>105</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>105</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>103</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>105</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>106</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>110</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>106</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>104</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>103</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>104</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>104</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>102</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>99</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>98</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>98</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>96</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>98</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>151</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>148</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>148</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>159</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>185</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>207</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>224</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>289</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>375</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>390</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>396</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>410</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>495</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>526</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>547</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>565</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>614</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>650</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>678</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>719</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>737</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>785</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>845</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>870</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>906</v>
+      </c>
+      <c r="CJ6" s="1">
+        <v>946</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>972</v>
+      </c>
+      <c r="CL6" s="1">
+        <v>1009</v>
+      </c>
+      <c r="CM6" s="1">
+        <v>1093</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>1178</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>1307</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>1371</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>1427</v>
+      </c>
+      <c r="CR6" s="1">
+        <v>1498</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>1560</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>1602</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>1661</v>
+      </c>
+      <c r="CV6" s="1">
+        <v>1716</v>
+      </c>
+      <c r="CW6" s="1">
+        <v>1757</v>
+      </c>
+      <c r="CX6" s="1">
+        <v>1808</v>
+      </c>
+      <c r="CY6" s="1">
+        <v>1852</v>
+      </c>
+      <c r="CZ6" s="1">
+        <v>1924</v>
+      </c>
+      <c r="DA6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="DB6" s="1">
+        <v>2084</v>
+      </c>
+      <c r="DC6" s="1">
+        <v>2147</v>
+      </c>
+      <c r="DD6" s="1">
+        <v>2226</v>
+      </c>
+      <c r="DE6" s="1">
+        <v>2275</v>
+      </c>
+      <c r="DF6" s="1">
+        <v>2318</v>
+      </c>
+      <c r="DG6" s="1">
+        <v>2382</v>
+      </c>
+      <c r="DH6" s="1">
+        <v>2458</v>
+      </c>
+      <c r="DI6" s="1">
+        <v>2498</v>
+      </c>
+      <c r="DJ6" s="1">
+        <v>2571</v>
+      </c>
+      <c r="DK6" s="1">
+        <v>2620</v>
+      </c>
+      <c r="DL6" s="1">
+        <v>2652</v>
+      </c>
+      <c r="DM6" s="1">
+        <v>2680</v>
+      </c>
+      <c r="DN6" s="1">
+        <v>2763</v>
+      </c>
+      <c r="DO6" s="1">
+        <v>2824</v>
+      </c>
+      <c r="DP6" s="1">
+        <v>2893</v>
+      </c>
+      <c r="DQ6" s="1">
+        <v>2957</v>
+      </c>
+      <c r="DR6" s="1">
+        <v>3013</v>
+      </c>
+      <c r="DS6" s="1">
+        <v>3088</v>
+      </c>
+      <c r="DT6" s="1">
+        <v>3188</v>
+      </c>
+      <c r="DU6" s="1">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:125">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2759</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2777</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2779</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2779</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2795</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2808</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2813</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2856</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2871</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2864</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2856</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2852</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2858</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2849</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2838</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2833</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2840</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2836</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2854</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2851</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2870</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2881</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2896</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>2896</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2912</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2922</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2915</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2917</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2914</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>2896</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>2886</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>2850</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2842</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>2845</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>2843</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>2846</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>2834</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>2810</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>2809</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>2808</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>2788</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>2791</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>2778</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>2793</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>2796</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>2804</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>2783</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>2791</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>2806</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>2796</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>2793</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>2796</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>2801</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>2791</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>2809</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>2813</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>2825</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>2832</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>2838</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>2835</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>2840</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>2854</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>2881</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>2907</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>2937</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>2967</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>3013</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>3046</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>3038</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>3068</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>3116</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>3137</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>3160</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>3205</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>3252</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>3288</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>3323</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>3340</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>3366</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>3410</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>3435</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>3464</v>
+      </c>
+      <c r="CJ7" s="1">
+        <v>3499</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>3514</v>
+      </c>
+      <c r="CL7" s="1">
+        <v>3542</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>3556</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>3565</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>3591</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>3520</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>3552</v>
+      </c>
+      <c r="CR7" s="1">
+        <v>3592</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>3610</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>3638</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>3679</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>3703</v>
+      </c>
+      <c r="CW7" s="1">
+        <v>3729</v>
+      </c>
+      <c r="CX7" s="1">
+        <v>3765</v>
+      </c>
+      <c r="CY7" s="1">
+        <v>3788</v>
+      </c>
+      <c r="CZ7" s="1">
+        <v>3827</v>
+      </c>
+      <c r="DA7" s="1">
+        <v>3849</v>
+      </c>
+      <c r="DB7" s="1">
+        <v>3874</v>
+      </c>
+      <c r="DC7" s="1">
+        <v>3799</v>
+      </c>
+      <c r="DD7" s="1">
+        <v>3782</v>
+      </c>
+      <c r="DE7" s="1">
+        <v>3738</v>
+      </c>
+      <c r="DF7" s="1">
+        <v>3732</v>
+      </c>
+      <c r="DG7" s="1">
+        <v>3703</v>
+      </c>
+      <c r="DH7" s="1">
+        <v>3687</v>
+      </c>
+      <c r="DI7" s="1">
+        <v>3655</v>
+      </c>
+      <c r="DJ7" s="1">
+        <v>3630</v>
+      </c>
+      <c r="DK7" s="1">
+        <v>3590</v>
+      </c>
+      <c r="DL7" s="1">
+        <v>3618</v>
+      </c>
+      <c r="DM7" s="1">
+        <v>3562</v>
+      </c>
+      <c r="DN7" s="1">
+        <v>3565</v>
+      </c>
+      <c r="DO7" s="1">
+        <v>3565</v>
+      </c>
+      <c r="DP7" s="1">
+        <v>3577</v>
+      </c>
+      <c r="DQ7" s="1">
+        <v>3555</v>
+      </c>
+      <c r="DR7" s="1">
+        <v>3533</v>
+      </c>
+      <c r="DS7" s="1">
+        <v>3517</v>
+      </c>
+      <c r="DT7" s="1">
+        <v>3523</v>
+      </c>
+      <c r="DU7" s="1">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:125">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>581941</v>
+      </c>
+      <c r="D8" s="1">
+        <v>583658</v>
+      </c>
+      <c r="E8" s="1">
+        <v>585014</v>
+      </c>
+      <c r="F8" s="1">
+        <v>583720</v>
+      </c>
+      <c r="G8" s="1">
+        <v>583206</v>
+      </c>
+      <c r="H8" s="1">
+        <v>584474</v>
+      </c>
+      <c r="I8" s="1">
+        <v>585862</v>
+      </c>
+      <c r="J8" s="1">
+        <v>587298</v>
+      </c>
+      <c r="K8" s="1">
+        <v>586760</v>
+      </c>
+      <c r="L8" s="1">
+        <v>586554</v>
+      </c>
+      <c r="M8" s="1">
+        <v>585390</v>
+      </c>
+      <c r="N8" s="1">
+        <v>584679</v>
+      </c>
+      <c r="O8" s="1">
+        <v>584009</v>
+      </c>
+      <c r="P8" s="1">
+        <v>583802</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>582995</v>
+      </c>
+      <c r="R8" s="1">
+        <v>581585</v>
+      </c>
+      <c r="S8" s="1">
+        <v>581383</v>
+      </c>
+      <c r="T8" s="1">
+        <v>581232</v>
+      </c>
+      <c r="U8" s="1">
+        <v>581948</v>
+      </c>
+      <c r="V8" s="1">
+        <v>582997</v>
+      </c>
+      <c r="W8" s="1">
+        <v>582898</v>
+      </c>
+      <c r="X8" s="1">
+        <v>583009</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>582973</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>583385</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>584373</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>585664</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>586205</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>585580</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>585184</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>584946</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>584684</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>584888</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>583977</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>583376</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>581290</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>579210</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>576921</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>575315</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>574751</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>573203</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>572318</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>571552</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>571687</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>572079</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>571989</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>571274</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>570003</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>568482</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>568094</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>568177</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>568220</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>568463</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>568162</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>567794</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>567178</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>567379</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>566788</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>566469</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>565331</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>564240</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>577469</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>576497</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>576752</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>577171</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>576951</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>580740</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>584504</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>587899</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>590718</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>593848</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>596303</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>589457</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>592251</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>595369</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>597791</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>600311</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>603279</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>605867</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>609581</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>612944</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>616123</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>618704</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>622403</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>624274</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>626842</v>
+      </c>
+      <c r="CJ8" s="1">
+        <v>630573</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>633793</v>
+      </c>
+      <c r="CL8" s="1">
+        <v>636749</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>640290</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>643424</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>647150</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>629401</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>633270</v>
+      </c>
+      <c r="CR8" s="1">
+        <v>636566</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>640041</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>642528</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>645456</v>
+      </c>
+      <c r="CV8" s="1">
+        <v>649537</v>
+      </c>
+      <c r="CW8" s="1">
+        <v>653283</v>
+      </c>
+      <c r="CX8" s="1">
+        <v>656933</v>
+      </c>
+      <c r="CY8" s="1">
+        <v>660289</v>
+      </c>
+      <c r="CZ8" s="1">
+        <v>663628</v>
+      </c>
+      <c r="DA8" s="1">
+        <v>667229</v>
+      </c>
+      <c r="DB8" s="1">
+        <v>670333</v>
+      </c>
+      <c r="DC8" s="1">
+        <v>654756</v>
+      </c>
+      <c r="DD8" s="1">
+        <v>650046</v>
+      </c>
+      <c r="DE8" s="1">
+        <v>642802</v>
+      </c>
+      <c r="DF8" s="1">
+        <v>638700</v>
+      </c>
+      <c r="DG8" s="1">
+        <v>633088</v>
+      </c>
+      <c r="DH8" s="1">
+        <v>626241</v>
+      </c>
+      <c r="DI8" s="1">
+        <v>620171</v>
+      </c>
+      <c r="DJ8" s="1">
+        <v>614077</v>
+      </c>
+      <c r="DK8" s="1">
+        <v>607264</v>
+      </c>
+      <c r="DL8" s="1">
+        <v>609801</v>
+      </c>
+      <c r="DM8" s="1">
+        <v>603018</v>
+      </c>
+      <c r="DN8" s="1">
+        <v>602763</v>
+      </c>
+      <c r="DO8" s="1">
+        <v>602898</v>
+      </c>
+      <c r="DP8" s="1">
+        <v>603932</v>
+      </c>
+      <c r="DQ8" s="1">
+        <v>604561</v>
+      </c>
+      <c r="DR8" s="1">
+        <v>604812</v>
+      </c>
+      <c r="DS8" s="1">
+        <v>606008</v>
+      </c>
+      <c r="DT8" s="1">
+        <v>607344</v>
+      </c>
+      <c r="DU8" s="1">
+        <v>608267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:125">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>4938</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>6565</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>6618</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>6716</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>6786</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>6853</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>6900</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>6976</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>7055</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>7122</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>7273</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>7387</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>7534</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>7635</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>7808</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>7997</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>8193</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>8344</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>8517</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>8671</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>8849</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>9014</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>9261</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>9418</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>9718</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>9914</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>10078</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>10213</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>10427</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>10576</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>10805</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>10946</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>11206</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>11448</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>11622</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>11716</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>11801</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>12046</v>
+      </c>
+      <c r="CW9" s="1">
+        <v>12173</v>
+      </c>
+      <c r="CX9" s="1">
+        <v>12304</v>
+      </c>
+      <c r="CY9" s="1">
+        <v>12475</v>
+      </c>
+      <c r="CZ9" s="1">
+        <v>12724</v>
+      </c>
+      <c r="DA9" s="1">
+        <v>12963</v>
+      </c>
+      <c r="DB9" s="1">
+        <v>13171</v>
+      </c>
+      <c r="DC9" s="1">
+        <v>13258</v>
+      </c>
+      <c r="DD9" s="1">
+        <v>13445</v>
+      </c>
+      <c r="DE9" s="1">
+        <v>13563</v>
+      </c>
+      <c r="DF9" s="1">
+        <v>13767</v>
+      </c>
+      <c r="DG9" s="1">
+        <v>13857</v>
+      </c>
+      <c r="DH9" s="1">
+        <v>14060</v>
+      </c>
+      <c r="DI9" s="1">
+        <v>14009</v>
+      </c>
+      <c r="DJ9" s="1">
+        <v>14046</v>
+      </c>
+      <c r="DK9" s="1">
+        <v>14164</v>
+      </c>
+      <c r="DL9" s="1">
+        <v>14291</v>
+      </c>
+      <c r="DM9" s="1">
+        <v>14334</v>
+      </c>
+      <c r="DN9" s="1">
+        <v>14484</v>
+      </c>
+      <c r="DO9" s="1">
+        <v>14610</v>
+      </c>
+      <c r="DP9" s="1">
+        <v>14716</v>
+      </c>
+      <c r="DQ9" s="1">
+        <v>14794</v>
+      </c>
+      <c r="DR9" s="1">
+        <v>14902</v>
+      </c>
+      <c r="DS9" s="1">
+        <v>15020</v>
+      </c>
+      <c r="DT9" s="1">
+        <v>15171</v>
+      </c>
+      <c r="DU9" s="1">
+        <v>15247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:125">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9439</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9527</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9584</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9581</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9616</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9654</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9782</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9887</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10008</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10122</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10276</v>
+      </c>
+      <c r="N10" s="1">
+        <v>10361</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10474</v>
+      </c>
+      <c r="P10" s="1">
+        <v>10533</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>10598</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10495</v>
+      </c>
+      <c r="S10" s="1">
+        <v>10516</v>
+      </c>
+      <c r="T10" s="1">
+        <v>10686</v>
+      </c>
+      <c r="U10" s="1">
+        <v>10837</v>
+      </c>
+      <c r="V10" s="1">
+        <v>10946</v>
+      </c>
+      <c r="W10" s="1">
+        <v>11034</v>
+      </c>
+      <c r="X10" s="1">
+        <v>11178</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>11359</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>11471</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>11701</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>11859</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>12003</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>12253</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>12367</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>12482</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>12622</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>12769</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>12820</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>12897</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>12871</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>12944</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>13070</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>13210</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>13271</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>13333</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>13388</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>13719</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>14096</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>14882</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>14950</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>15013</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>15233</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>15479</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>15901</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>16273</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>16457</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>16531</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>16709</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>17240</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>17522</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>18228</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>18403</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>18510</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>18374</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>18458</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>157</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>157</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>161</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>160</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>159</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>159</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>158</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>159</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>160</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>159</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>162</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>155</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>153</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>151</v>
+      </c>
+      <c r="BY10" s="1">
+        <v>151</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>150</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>150</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>150</v>
+      </c>
+      <c r="CC10" s="1">
+        <v>150</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>149</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>149</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>147</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>148</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>148</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>149</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>149</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>149</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>150</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>149</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>149</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>148</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>140</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>141</v>
+      </c>
+      <c r="CR10" s="1">
+        <v>140</v>
+      </c>
+      <c r="CS10" s="1">
+        <v>140</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>141</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>140</v>
+      </c>
+      <c r="CV10" s="1">
+        <v>141</v>
+      </c>
+      <c r="CW10" s="1">
+        <v>143</v>
+      </c>
+      <c r="CX10" s="1">
+        <v>146</v>
+      </c>
+      <c r="CY10" s="1">
+        <v>146</v>
+      </c>
+      <c r="CZ10" s="1">
+        <v>148</v>
+      </c>
+      <c r="DA10" s="1">
+        <v>147</v>
+      </c>
+      <c r="DB10" s="1">
+        <v>148</v>
+      </c>
+      <c r="DC10" s="1">
+        <v>141</v>
+      </c>
+      <c r="DD10" s="1">
+        <v>137</v>
+      </c>
+      <c r="DE10" s="1">
+        <v>139</v>
+      </c>
+      <c r="DF10" s="1">
+        <v>138</v>
+      </c>
+      <c r="DG10" s="1">
+        <v>137</v>
+      </c>
+      <c r="DH10" s="1">
+        <v>133</v>
+      </c>
+      <c r="DI10" s="1">
+        <v>127</v>
+      </c>
+      <c r="DJ10" s="1">
+        <v>125</v>
+      </c>
+      <c r="DK10" s="1">
+        <v>123</v>
+      </c>
+      <c r="DL10" s="1">
+        <v>125</v>
+      </c>
+      <c r="DM10" s="1">
+        <v>124</v>
+      </c>
+      <c r="DN10" s="1">
+        <v>122</v>
+      </c>
+      <c r="DO10" s="1">
+        <v>121</v>
+      </c>
+      <c r="DP10" s="1">
+        <v>120</v>
+      </c>
+      <c r="DQ10" s="1">
+        <v>120</v>
+      </c>
+      <c r="DR10" s="1">
+        <v>120</v>
+      </c>
+      <c r="DS10" s="1">
+        <v>119</v>
+      </c>
+      <c r="DT10" s="1">
+        <v>113</v>
+      </c>
+      <c r="DU10" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:125">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>4</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CY11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CZ11" s="1">
+        <v>5</v>
+      </c>
+      <c r="DA11" s="1">
+        <v>5</v>
+      </c>
+      <c r="DB11" s="1">
+        <v>5</v>
+      </c>
+      <c r="DC11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DD11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DE11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DG11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DH11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DI11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DJ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DK11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DL11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DM11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DN11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DO11" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DQ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="DR11" s="1">
+        <v>3</v>
+      </c>
+      <c r="DS11" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT11" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:125">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7871</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7920</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7972</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8039</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8148</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8254</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8347</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8422</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8474</v>
+      </c>
+      <c r="L12" s="1">
+        <v>8557</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8622</v>
+      </c>
+      <c r="N12" s="1">
+        <v>8698</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8767</v>
+      </c>
+      <c r="P12" s="1">
+        <v>8807</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>8861</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8920</v>
+      </c>
+      <c r="S12" s="1">
+        <v>8998</v>
+      </c>
+      <c r="T12" s="1">
+        <v>9063</v>
+      </c>
+      <c r="U12" s="1">
+        <v>9148</v>
+      </c>
+      <c r="V12" s="1">
+        <v>9215</v>
+      </c>
+      <c r="W12" s="1">
+        <v>9260</v>
+      </c>
+      <c r="X12" s="1">
+        <v>9302</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>9360</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>9403</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>9461</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>9519</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>9554</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>9649</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>9705</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>9789</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>9826</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>9869</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>9889</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>9890</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>9911</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>9933</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>9922</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>9913</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>9928</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>9912</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>9890</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>9875</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>9884</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>9868</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>9870</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>9875</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>9900</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>9903</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>9905</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>9920</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>9910</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>9893</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>9886</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>9885</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>9873</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>9871</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>9889</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>9897</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>9907</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>9919</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>9942</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>9962</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>9966</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>9975</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>9957</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>9988</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>10024</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>10066</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>10100</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>10155</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>10195</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>10133</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>10207</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>10251</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>10299</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>10345</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>10381</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>10425</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>10482</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>10561</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>10612</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>10667</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>10742</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>10776</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>10847</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>10894</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>10930</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>10985</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>11031</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>11065</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>11112</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>10952</v>
+      </c>
+      <c r="CQ12" s="1">
+        <v>10984</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>11017</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>11077</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>11129</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>11175</v>
+      </c>
+      <c r="CV12" s="1">
+        <v>11252</v>
+      </c>
+      <c r="CW12" s="1">
+        <v>11294</v>
+      </c>
+      <c r="CX12" s="1">
+        <v>11362</v>
+      </c>
+      <c r="CY12" s="1">
+        <v>11402</v>
+      </c>
+      <c r="CZ12" s="1">
+        <v>11467</v>
+      </c>
+      <c r="DA12" s="1">
+        <v>11547</v>
+      </c>
+      <c r="DB12" s="1">
+        <v>11578</v>
+      </c>
+      <c r="DC12" s="1">
+        <v>11372</v>
+      </c>
+      <c r="DD12" s="1">
+        <v>11360</v>
+      </c>
+      <c r="DE12" s="1">
+        <v>11309</v>
+      </c>
+      <c r="DF12" s="1">
+        <v>11296</v>
+      </c>
+      <c r="DG12" s="1">
+        <v>11194</v>
+      </c>
+      <c r="DH12" s="1">
+        <v>11182</v>
+      </c>
+      <c r="DI12" s="1">
+        <v>11080</v>
+      </c>
+      <c r="DJ12" s="1">
+        <v>11045</v>
+      </c>
+      <c r="DK12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="DL12" s="1">
+        <v>11104</v>
+      </c>
+      <c r="DM12" s="1">
+        <v>11035</v>
+      </c>
+      <c r="DN12" s="1">
+        <v>11042</v>
+      </c>
+      <c r="DO12" s="1">
+        <v>11047</v>
+      </c>
+      <c r="DP12" s="1">
+        <v>11078</v>
+      </c>
+      <c r="DQ12" s="1">
+        <v>11074</v>
+      </c>
+      <c r="DR12" s="1">
+        <v>11094</v>
+      </c>
+      <c r="DS12" s="1">
+        <v>11109</v>
+      </c>
+      <c r="DT12" s="1">
+        <v>11147</v>
+      </c>
+      <c r="DU12" s="1">
+        <v>11161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:125">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>28898</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29025</v>
+      </c>
+      <c r="E13" s="1">
+        <v>29074</v>
+      </c>
+      <c r="F13" s="1">
+        <v>29165</v>
+      </c>
+      <c r="G13" s="1">
+        <v>29248</v>
+      </c>
+      <c r="H13" s="1">
+        <v>29292</v>
+      </c>
+      <c r="I13" s="1">
+        <v>29331</v>
+      </c>
+      <c r="J13" s="1">
+        <v>29398</v>
+      </c>
+      <c r="K13" s="1">
+        <v>29453</v>
+      </c>
+      <c r="L13" s="1">
+        <v>29512</v>
+      </c>
+      <c r="M13" s="1">
+        <v>29518</v>
+      </c>
+      <c r="N13" s="1">
+        <v>29500</v>
+      </c>
+      <c r="O13" s="1">
+        <v>29472</v>
+      </c>
+      <c r="P13" s="1">
+        <v>29462</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>29561</v>
+      </c>
+      <c r="R13" s="1">
+        <v>29571</v>
+      </c>
+      <c r="S13" s="1">
+        <v>29600</v>
+      </c>
+      <c r="T13" s="1">
+        <v>29593</v>
+      </c>
+      <c r="U13" s="1">
+        <v>29614</v>
+      </c>
+      <c r="V13" s="1">
+        <v>29626</v>
+      </c>
+      <c r="W13" s="1">
+        <v>29623</v>
+      </c>
+      <c r="X13" s="1">
+        <v>29624</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>29601</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>29592</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>29602</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>29630</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>29676</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>29753</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>29699</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>29706</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>29756</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>29807</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>29744</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>29764</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>29791</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>29746</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>29674</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>29603</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>29517</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>29496</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>29430</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>29384</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>29300</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>29246</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>29195</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>29153</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>29080</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>28985</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>28939</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>28821</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>28748</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>28689</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>28614</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>28559</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>28508</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>28417</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>28368</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>28323</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>28245</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>28187</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>29160</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>29145</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>29061</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>29019</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>28961</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>29070</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>29159</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>29286</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>29393</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>29525</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>29624</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>29395</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>29479</v>
+      </c>
+      <c r="BX13" s="1">
+        <v>29562</v>
+      </c>
+      <c r="BY13" s="1">
+        <v>29672</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>29716</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>29787</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>29860</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>29977</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>30056</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>30133</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>30217</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>30322</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>30348</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>30402</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>30508</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>30632</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>30801</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>30906</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>31006</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>31073</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>30516</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>30666</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>30799</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>30915</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>31005</v>
+      </c>
+      <c r="CU13" s="1">
+        <v>31081</v>
+      </c>
+      <c r="CV13" s="1">
+        <v>31292</v>
+      </c>
+      <c r="CW13" s="1">
+        <v>31421</v>
+      </c>
+      <c r="CX13" s="1">
+        <v>31542</v>
+      </c>
+      <c r="CY13" s="1">
+        <v>31653</v>
+      </c>
+      <c r="CZ13" s="1">
+        <v>31776</v>
+      </c>
+      <c r="DA13" s="1">
+        <v>31914</v>
+      </c>
+      <c r="DB13" s="1">
+        <v>32078</v>
+      </c>
+      <c r="DC13" s="1">
+        <v>31591</v>
+      </c>
+      <c r="DD13" s="1">
+        <v>31496</v>
+      </c>
+      <c r="DE13" s="1">
+        <v>31357</v>
+      </c>
+      <c r="DF13" s="1">
+        <v>31204</v>
+      </c>
+      <c r="DG13" s="1">
+        <v>31126</v>
+      </c>
+      <c r="DH13" s="1">
+        <v>30969</v>
+      </c>
+      <c r="DI13" s="1">
+        <v>30803</v>
+      </c>
+      <c r="DJ13" s="1">
+        <v>30736</v>
+      </c>
+      <c r="DK13" s="1">
+        <v>30593</v>
+      </c>
+      <c r="DL13" s="1">
+        <v>30736</v>
+      </c>
+      <c r="DM13" s="1">
+        <v>30552</v>
+      </c>
+      <c r="DN13" s="1">
+        <v>30591</v>
+      </c>
+      <c r="DO13" s="1">
+        <v>30621</v>
+      </c>
+      <c r="DP13" s="1">
+        <v>30689</v>
+      </c>
+      <c r="DQ13" s="1">
+        <v>30780</v>
+      </c>
+      <c r="DR13" s="1">
+        <v>30825</v>
+      </c>
+      <c r="DS13" s="1">
+        <v>30897</v>
+      </c>
+      <c r="DT13" s="1">
+        <v>31076</v>
+      </c>
+      <c r="DU13" s="1">
+        <v>31113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:125">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>57</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>60</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>60</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>60</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>59</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>61</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>61</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>61</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>60</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>59</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>60</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>58</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>60</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>60</v>
+      </c>
+      <c r="BY14" s="1">
+        <v>61</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>63</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>64</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>65</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>66</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>66</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>67</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>68</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>68</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>69</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>70</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>70</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>71</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>71</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>72</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>72</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>73</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>73</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>73</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>74</v>
+      </c>
+      <c r="CS14" s="1">
+        <v>76</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>77</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>77</v>
+      </c>
+      <c r="CV14" s="1">
+        <v>77</v>
+      </c>
+      <c r="CW14" s="1">
+        <v>77</v>
+      </c>
+      <c r="CX14" s="1">
+        <v>80</v>
+      </c>
+      <c r="CY14" s="1">
+        <v>81</v>
+      </c>
+      <c r="CZ14" s="1">
+        <v>82</v>
+      </c>
+      <c r="DA14" s="1">
+        <v>82</v>
+      </c>
+      <c r="DB14" s="1">
+        <v>83</v>
+      </c>
+      <c r="DC14" s="1">
+        <v>82</v>
+      </c>
+      <c r="DD14" s="1">
+        <v>82</v>
+      </c>
+      <c r="DE14" s="1">
+        <v>83</v>
+      </c>
+      <c r="DF14" s="1">
+        <v>84</v>
+      </c>
+      <c r="DG14" s="1">
+        <v>85</v>
+      </c>
+      <c r="DH14" s="1">
+        <v>87</v>
+      </c>
+      <c r="DI14" s="1">
+        <v>87</v>
+      </c>
+      <c r="DJ14" s="1">
+        <v>85</v>
+      </c>
+      <c r="DK14" s="1">
+        <v>86</v>
+      </c>
+      <c r="DL14" s="1">
+        <v>87</v>
+      </c>
+      <c r="DM14" s="1">
+        <v>87</v>
+      </c>
+      <c r="DN14" s="1">
+        <v>87</v>
+      </c>
+      <c r="DO14" s="1">
+        <v>86</v>
+      </c>
+      <c r="DP14" s="1">
+        <v>85</v>
+      </c>
+      <c r="DQ14" s="1">
+        <v>86</v>
+      </c>
+      <c r="DR14" s="1">
+        <v>85</v>
+      </c>
+      <c r="DS14" s="1">
+        <v>85</v>
+      </c>
+      <c r="DT14" s="1">
+        <v>88</v>
+      </c>
+      <c r="DU14" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:125">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>622</v>
+      </c>
+      <c r="D15" s="1">
+        <v>618</v>
+      </c>
+      <c r="E15" s="1">
+        <v>637</v>
+      </c>
+      <c r="F15" s="1">
+        <v>638</v>
+      </c>
+      <c r="G15" s="1">
+        <v>639</v>
+      </c>
+      <c r="H15" s="1">
+        <v>651</v>
+      </c>
+      <c r="I15" s="1">
+        <v>656</v>
+      </c>
+      <c r="J15" s="1">
+        <v>659</v>
+      </c>
+      <c r="K15" s="1">
+        <v>667</v>
+      </c>
+      <c r="L15" s="1">
+        <v>665</v>
+      </c>
+      <c r="M15" s="1">
+        <v>666</v>
+      </c>
+      <c r="N15" s="1">
+        <v>672</v>
+      </c>
+      <c r="O15" s="1">
+        <v>670</v>
+      </c>
+      <c r="P15" s="1">
+        <v>677</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>689</v>
+      </c>
+      <c r="R15" s="1">
+        <v>696</v>
+      </c>
+      <c r="S15" s="1">
+        <v>699</v>
+      </c>
+      <c r="T15" s="1">
+        <v>701</v>
+      </c>
+      <c r="U15" s="1">
+        <v>716</v>
+      </c>
+      <c r="V15" s="1">
+        <v>723</v>
+      </c>
+      <c r="W15" s="1">
+        <v>731</v>
+      </c>
+      <c r="X15" s="1">
+        <v>748</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>752</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>756</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>764</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>775</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>788</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>792</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>794</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>804</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>823</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>835</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>853</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>857</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>850</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>854</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>860</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>864</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>864</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>874</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>879</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>887</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>894</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>898</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>913</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>921</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>931</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>946</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>961</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>962</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>965</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>1027</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>1049</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>1072</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>1085</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>1110</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>1156</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>1186</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>109</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>108</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>109</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>109</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>109</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>108</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>108</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>108</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>105</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>105</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>105</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>104</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>104</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>104</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>103</v>
+      </c>
+      <c r="BZ15" s="1">
+        <v>102</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>102</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>103</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>103</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>104</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>104</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>105</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>105</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>105</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>105</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>104</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>103</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>103</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>105</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>105</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>105</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>101</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>102</v>
+      </c>
+      <c r="CR15" s="1">
+        <v>102</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>102</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>102</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>102</v>
+      </c>
+      <c r="CV15" s="1">
+        <v>100</v>
+      </c>
+      <c r="CW15" s="1">
+        <v>100</v>
+      </c>
+      <c r="CX15" s="1">
+        <v>99</v>
+      </c>
+      <c r="CY15" s="1">
+        <v>98</v>
+      </c>
+      <c r="CZ15" s="1">
+        <v>98</v>
+      </c>
+      <c r="DA15" s="1">
+        <v>98</v>
+      </c>
+      <c r="DB15" s="1">
+        <v>98</v>
+      </c>
+      <c r="DC15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DD15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DE15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DF15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DG15" s="1">
+        <v>95</v>
+      </c>
+      <c r="DH15" s="1">
+        <v>96</v>
+      </c>
+      <c r="DI15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DJ15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DK15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DL15" s="1">
+        <v>96</v>
+      </c>
+      <c r="DM15" s="1">
+        <v>95</v>
+      </c>
+      <c r="DN15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DO15" s="1">
+        <v>97</v>
+      </c>
+      <c r="DP15" s="1">
+        <v>96</v>
+      </c>
+      <c r="DQ15" s="1">
+        <v>95</v>
+      </c>
+      <c r="DR15" s="1">
+        <v>95</v>
+      </c>
+      <c r="DS15" s="1">
+        <v>96</v>
+      </c>
+      <c r="DT15" s="1">
+        <v>95</v>
+      </c>
+      <c r="DU15" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:125">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C6:C15)</f>
+        <v>631601</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:BO16" si="0">SUM(D6:D15)</f>
+        <v>633598</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>635131</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>633995</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>633725</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>635208</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>636864</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>638593</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>638305</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>638350</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>637405</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>636838</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>636330</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>636227</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>635647</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>634207</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>634141</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>634216</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="0"/>
+        <v>635221</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="0"/>
+        <v>636459</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="0"/>
+        <v>636521</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="0"/>
+        <v>636847</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="0"/>
+        <v>637047</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="0"/>
+        <v>637612</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="0"/>
+        <v>638903</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="0"/>
+        <v>640465</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="0"/>
+        <v>641251</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="0"/>
+        <v>641044</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="0"/>
+        <v>640770</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="0"/>
+        <v>640745</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="0"/>
+        <v>640711</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="0"/>
+        <v>641162</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="0"/>
+        <v>640245</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="0"/>
+        <v>639739</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="0"/>
+        <v>637670</v>
+      </c>
+      <c r="AL16" s="1">
+        <f t="shared" si="0"/>
+        <v>635642</v>
+      </c>
+      <c r="AM16" s="1">
+        <f t="shared" si="0"/>
+        <v>633404</v>
+      </c>
+      <c r="AN16" s="1">
+        <f t="shared" si="0"/>
+        <v>631853</v>
+      </c>
+      <c r="AO16" s="1">
+        <f t="shared" si="0"/>
+        <v>631260</v>
+      </c>
+      <c r="AP16" s="1">
+        <f t="shared" si="0"/>
+        <v>629731</v>
+      </c>
+      <c r="AQ16" s="1">
+        <f t="shared" si="0"/>
+        <v>628823</v>
+      </c>
+      <c r="AR16" s="1">
+        <f t="shared" si="0"/>
+        <v>628324</v>
+      </c>
+      <c r="AS16" s="1">
+        <f t="shared" si="0"/>
+        <v>628750</v>
+      </c>
+      <c r="AT16" s="1">
+        <f t="shared" si="0"/>
+        <v>629868</v>
+      </c>
+      <c r="AU16" s="1">
+        <f t="shared" si="0"/>
+        <v>629788</v>
+      </c>
+      <c r="AV16" s="1">
+        <f t="shared" si="0"/>
+        <v>629127</v>
+      </c>
+      <c r="AW16" s="1">
+        <f t="shared" si="0"/>
+        <v>628041</v>
+      </c>
+      <c r="AX16" s="1">
+        <f t="shared" si="0"/>
+        <v>626689</v>
+      </c>
+      <c r="AY16" s="1">
+        <f t="shared" si="0"/>
+        <v>626702</v>
+      </c>
+      <c r="AZ16" s="1">
+        <f t="shared" si="0"/>
+        <v>627044</v>
+      </c>
+      <c r="BA16" s="1">
+        <f t="shared" si="0"/>
+        <v>627195</v>
+      </c>
+      <c r="BB16" s="1">
+        <f t="shared" si="0"/>
+        <v>627453</v>
+      </c>
+      <c r="BC16" s="1">
+        <f t="shared" si="0"/>
+        <v>627275</v>
+      </c>
+      <c r="BD16" s="1">
+        <f t="shared" si="0"/>
+        <v>627405</v>
+      </c>
+      <c r="BE16" s="1">
+        <f t="shared" si="0"/>
+        <v>627031</v>
+      </c>
+      <c r="BF16" s="1">
+        <f t="shared" si="0"/>
+        <v>627870</v>
+      </c>
+      <c r="BG16" s="1">
+        <f t="shared" si="0"/>
+        <v>627424</v>
+      </c>
+      <c r="BH16" s="1">
+        <f t="shared" si="0"/>
+        <v>627218</v>
+      </c>
+      <c r="BI16" s="1">
+        <f t="shared" si="0"/>
+        <v>625923</v>
+      </c>
+      <c r="BJ16" s="1">
+        <f t="shared" si="0"/>
+        <v>624914</v>
+      </c>
+      <c r="BK16" s="1">
+        <f t="shared" si="0"/>
+        <v>624818</v>
+      </c>
+      <c r="BL16" s="1">
+        <f t="shared" si="0"/>
+        <v>625483</v>
+      </c>
+      <c r="BM16" s="1">
+        <f t="shared" si="0"/>
+        <v>625713</v>
+      </c>
+      <c r="BN16" s="1">
+        <f t="shared" si="0"/>
+        <v>626212</v>
+      </c>
+      <c r="BO16" s="1">
+        <f t="shared" si="0"/>
+        <v>626024</v>
+      </c>
+      <c r="BP16" s="1">
+        <f t="shared" ref="BP16:DU16" si="1">SUM(BP6:BP15)</f>
+        <v>630070</v>
+      </c>
+      <c r="BQ16" s="1">
+        <f t="shared" si="1"/>
+        <v>634049</v>
+      </c>
+      <c r="BR16" s="1">
+        <f t="shared" si="1"/>
+        <v>637785</v>
+      </c>
+      <c r="BS16" s="1">
+        <f t="shared" si="1"/>
+        <v>640937</v>
+      </c>
+      <c r="BT16" s="1">
+        <f t="shared" si="1"/>
+        <v>644380</v>
+      </c>
+      <c r="BU16" s="1">
+        <f t="shared" si="1"/>
+        <v>647168</v>
+      </c>
+      <c r="BV16" s="1">
+        <f t="shared" si="1"/>
+        <v>640141</v>
+      </c>
+      <c r="BW16" s="1">
+        <f t="shared" si="1"/>
+        <v>643355</v>
+      </c>
+      <c r="BX16" s="1">
+        <f t="shared" si="1"/>
+        <v>646778</v>
+      </c>
+      <c r="BY16" s="1">
+        <f t="shared" si="1"/>
+        <v>649573</v>
+      </c>
+      <c r="BZ16" s="1">
+        <f t="shared" si="1"/>
+        <v>652413</v>
+      </c>
+      <c r="CA16" s="1">
+        <f t="shared" si="1"/>
+        <v>655779</v>
+      </c>
+      <c r="CB16" s="1">
+        <f t="shared" si="1"/>
+        <v>658720</v>
+      </c>
+      <c r="CC16" s="1">
+        <f t="shared" si="1"/>
+        <v>662846</v>
+      </c>
+      <c r="CD16" s="1">
+        <f t="shared" si="1"/>
+        <v>666597</v>
+      </c>
+      <c r="CE16" s="1">
+        <f t="shared" si="1"/>
+        <v>670118</v>
+      </c>
+      <c r="CF16" s="1">
+        <f t="shared" si="1"/>
+        <v>673077</v>
+      </c>
+      <c r="CG16" s="1">
+        <f t="shared" si="1"/>
+        <v>677308</v>
+      </c>
+      <c r="CH16" s="1">
+        <f t="shared" si="1"/>
+        <v>679447</v>
+      </c>
+      <c r="CI16" s="1">
+        <f t="shared" si="1"/>
+        <v>682508</v>
+      </c>
+      <c r="CJ16" s="1">
+        <f t="shared" si="1"/>
+        <v>686662</v>
+      </c>
+      <c r="CK16" s="1">
+        <f t="shared" si="1"/>
+        <v>690247</v>
+      </c>
+      <c r="CL16" s="1">
+        <f t="shared" si="1"/>
+        <v>693628</v>
+      </c>
+      <c r="CM16" s="1">
+        <f t="shared" si="1"/>
+        <v>697634</v>
+      </c>
+      <c r="CN16" s="1">
+        <f t="shared" si="1"/>
+        <v>701145</v>
+      </c>
+      <c r="CO16" s="1">
+        <f t="shared" si="1"/>
+        <v>705369</v>
+      </c>
+      <c r="CP16" s="1">
+        <f t="shared" si="1"/>
+        <v>687024</v>
+      </c>
+      <c r="CQ16" s="1">
+        <f t="shared" si="1"/>
+        <v>691425</v>
+      </c>
+      <c r="CR16" s="1">
+        <f t="shared" si="1"/>
+        <v>695240</v>
+      </c>
+      <c r="CS16" s="1">
+        <f t="shared" si="1"/>
+        <v>699148</v>
+      </c>
+      <c r="CT16" s="1">
+        <f t="shared" si="1"/>
+        <v>701943</v>
+      </c>
+      <c r="CU16" s="1">
+        <f t="shared" si="1"/>
+        <v>705177</v>
+      </c>
+      <c r="CV16" s="1">
+        <f t="shared" si="1"/>
+        <v>709869</v>
+      </c>
+      <c r="CW16" s="1">
+        <f t="shared" si="1"/>
+        <v>713982</v>
+      </c>
+      <c r="CX16" s="1">
+        <f t="shared" si="1"/>
+        <v>718044</v>
+      </c>
+      <c r="CY16" s="1">
+        <f t="shared" si="1"/>
+        <v>721789</v>
+      </c>
+      <c r="CZ16" s="1">
+        <f t="shared" si="1"/>
+        <v>725679</v>
+      </c>
+      <c r="DA16" s="1">
+        <f t="shared" si="1"/>
+        <v>729836</v>
+      </c>
+      <c r="DB16" s="1">
+        <f t="shared" si="1"/>
+        <v>733452</v>
+      </c>
+      <c r="DC16" s="1">
+        <f t="shared" si="1"/>
+        <v>717247</v>
+      </c>
+      <c r="DD16" s="1">
+        <f t="shared" si="1"/>
+        <v>712675</v>
+      </c>
+      <c r="DE16" s="1">
+        <f t="shared" si="1"/>
+        <v>705367</v>
+      </c>
+      <c r="DF16" s="1">
+        <f t="shared" si="1"/>
+        <v>701340</v>
+      </c>
+      <c r="DG16" s="1">
+        <f t="shared" si="1"/>
+        <v>695671</v>
+      </c>
+      <c r="DH16" s="1">
+        <f t="shared" si="1"/>
+        <v>688917</v>
+      </c>
+      <c r="DI16" s="1">
+        <f t="shared" si="1"/>
+        <v>682531</v>
+      </c>
+      <c r="DJ16" s="1">
+        <f t="shared" si="1"/>
+        <v>676416</v>
+      </c>
+      <c r="DK16" s="1">
+        <f t="shared" si="1"/>
+        <v>669541</v>
+      </c>
+      <c r="DL16" s="1">
+        <f t="shared" si="1"/>
+        <v>672514</v>
+      </c>
+      <c r="DM16" s="1">
+        <f t="shared" si="1"/>
+        <v>665491</v>
+      </c>
+      <c r="DN16" s="1">
+        <f t="shared" si="1"/>
+        <v>665518</v>
+      </c>
+      <c r="DO16" s="1">
+        <f t="shared" si="1"/>
+        <v>665872</v>
+      </c>
+      <c r="DP16" s="1">
+        <f t="shared" si="1"/>
+        <v>667190</v>
+      </c>
+      <c r="DQ16" s="1">
+        <f t="shared" si="1"/>
+        <v>668026</v>
+      </c>
+      <c r="DR16" s="1">
+        <f t="shared" si="1"/>
+        <v>668482</v>
+      </c>
+      <c r="DS16" s="1">
+        <f t="shared" si="1"/>
+        <v>669942</v>
+      </c>
+      <c r="DT16" s="1">
+        <f t="shared" si="1"/>
+        <v>671748</v>
+      </c>
+      <c r="DU16" s="1">
+        <f t="shared" si="1"/>
+        <v>672851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:125">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
+      <c r="DE17" s="1"/>
+      <c r="DF17" s="1"/>
+      <c r="DG17" s="1"/>
+      <c r="DH17" s="1"/>
+      <c r="DI17" s="1"/>
+      <c r="DJ17" s="1"/>
+      <c r="DK17" s="1"/>
+      <c r="DL17" s="1"/>
+      <c r="DM17" s="1"/>
+      <c r="DN17" s="1"/>
+      <c r="DO17" s="1"/>
+      <c r="DP17" s="1"/>
+      <c r="DQ17" s="1"/>
+      <c r="DR17" s="1"/>
+      <c r="DS17" s="1"/>
+      <c r="DT17" s="1"/>
+      <c r="DU17" s="1"/>
+    </row>
+    <row r="18" spans="1:125">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <f>AVERAGE(O16:Z16)</f>
+        <v>635872.91666666663</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
+      <c r="DC18" s="1"/>
+      <c r="DD18" s="1"/>
+      <c r="DE18" s="1"/>
+      <c r="DF18" s="1"/>
+      <c r="DG18" s="1"/>
+      <c r="DH18" s="1"/>
+      <c r="DI18" s="1"/>
+      <c r="DJ18" s="1"/>
+      <c r="DK18" s="1"/>
+      <c r="DL18" s="1"/>
+      <c r="DM18" s="1"/>
+      <c r="DN18" s="1"/>
+      <c r="DO18" s="1"/>
+      <c r="DP18" s="1"/>
+      <c r="DQ18" s="1"/>
+      <c r="DR18" s="1"/>
+      <c r="DS18" s="1"/>
+      <c r="DT18" s="1"/>
+      <c r="DU18" s="1"/>
+    </row>
+    <row r="19" spans="1:125">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>13142000</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
+      <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
+      <c r="DE19" s="1"/>
+      <c r="DF19" s="1"/>
+      <c r="DG19" s="1"/>
+      <c r="DH19" s="1"/>
+      <c r="DI19" s="1"/>
+      <c r="DJ19" s="1"/>
+      <c r="DK19" s="1"/>
+      <c r="DL19" s="1"/>
+      <c r="DM19" s="1"/>
+      <c r="DN19" s="1"/>
+      <c r="DO19" s="1"/>
+      <c r="DP19" s="1"/>
+      <c r="DQ19" s="1"/>
+      <c r="DR19" s="1"/>
+      <c r="DS19" s="1"/>
+      <c r="DT19" s="1"/>
+      <c r="DU19" s="1"/>
+    </row>
+    <row r="20" spans="1:125">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <f>B19*365/B18</f>
+        <v>7543.6928893679624</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="1"/>
+      <c r="DG20" s="1"/>
+      <c r="DH20" s="1"/>
+      <c r="DI20" s="1"/>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1"/>
+      <c r="DL20" s="1"/>
+      <c r="DM20" s="1"/>
+      <c r="DN20" s="1"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
+      <c r="DT20" s="1"/>
+      <c r="DU20" s="1"/>
+    </row>
+    <row r="21" spans="1:125">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <f>B20/4/1000000</f>
+        <v>1.8859232223419906E-3</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
+      <c r="CZ21" s="1"/>
+      <c r="DA21" s="1"/>
+      <c r="DB21" s="1"/>
+      <c r="DC21" s="1"/>
+      <c r="DD21" s="1"/>
+      <c r="DE21" s="1"/>
+      <c r="DF21" s="1"/>
+      <c r="DG21" s="1"/>
+      <c r="DH21" s="1"/>
+      <c r="DI21" s="1"/>
+      <c r="DJ21" s="1"/>
+      <c r="DK21" s="1"/>
+      <c r="DL21" s="1"/>
+      <c r="DM21" s="1"/>
+      <c r="DN21" s="1"/>
+      <c r="DO21" s="1"/>
+      <c r="DP21" s="1"/>
+      <c r="DQ21" s="1"/>
+      <c r="DR21" s="1"/>
+      <c r="DS21" s="1"/>
+      <c r="DT21" s="1"/>
+      <c r="DU21" s="1"/>
+    </row>
+    <row r="22" spans="1:125">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <f>(DU6-CK6)/((COLUMNS(CK6:DU6)-1)/12)</f>
+        <v>753.66666666666663</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
+      <c r="CW22" s="1"/>
+      <c r="CX22" s="1"/>
+      <c r="CY22" s="1"/>
+      <c r="CZ22" s="1"/>
+      <c r="DA22" s="1"/>
+      <c r="DB22" s="1"/>
+      <c r="DC22" s="1"/>
+      <c r="DD22" s="1"/>
+      <c r="DE22" s="1"/>
+      <c r="DF22" s="1"/>
+      <c r="DG22" s="1"/>
+      <c r="DH22" s="1"/>
+      <c r="DI22" s="1"/>
+      <c r="DJ22" s="1"/>
+      <c r="DK22" s="1"/>
+      <c r="DL22" s="1"/>
+      <c r="DM22" s="1"/>
+      <c r="DN22" s="1"/>
+      <c r="DO22" s="1"/>
+      <c r="DP22" s="1"/>
+      <c r="DQ22" s="1"/>
+      <c r="DR22" s="1"/>
+      <c r="DS22" s="1"/>
+      <c r="DT22" s="1"/>
+      <c r="DU22" s="1"/>
+    </row>
+    <row r="24" spans="1:125">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:125">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="7">
+        <f>COLUMNS(C$6:CC$6)</f>
+        <v>79</v>
+      </c>
+      <c r="C25" s="1">
+        <f>INDEX(C$6:DU$6, B25)</f>
+        <v>678</v>
+      </c>
+      <c r="D25">
+        <f>C25*$B$21</f>
+        <v>1.2786559447478696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:125">
+      <c r="A26">
+        <v>2013</v>
+      </c>
+      <c r="B26">
+        <f>B25+12</f>
+        <v>91</v>
+      </c>
+      <c r="C26" s="1">
+        <f>INDEX(C$6:DU$6, B26)</f>
+        <v>1307</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D63" si="2">C26*$B$21</f>
+        <v>2.4649016516009818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:125">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B28" si="3">B26+12</f>
+        <v>103</v>
+      </c>
+      <c r="C27" s="1">
+        <f>INDEX(C$6:DU$6, B27)</f>
+        <v>2002</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>3.7756182911286653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:125">
+      <c r="A28">
+        <v>2015</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="C28" s="1">
+        <f>INDEX(C$6:DU$6, B28)</f>
+        <v>2680</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>5.0542742358765347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:125">
+      <c r="A29">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="7">
+        <f>COLUMNS(C$6:DU$6)</f>
+        <v>123</v>
+      </c>
+      <c r="C29" s="1">
+        <f>INDEX(C$6:DU$6, B29)</f>
+        <v>3233</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>6.0971897778316553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:125">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C29+B$22</f>
+        <v>3986.6666666666665</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>7.5185472464034024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:125">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C30+B$22</f>
+        <v>4740.333333333333</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>8.9399047149751496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:125">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="C32" s="1">
+        <f>C31+B$22</f>
+        <v>5494</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>10.361262183546897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C32+B$22</f>
+        <v>6247.666666666667</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>11.782619652118644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="1">
+        <f>C33+B$22</f>
+        <v>7001.3333333333339</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>13.203977120690391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C34+B$22</f>
+        <v>7755.0000000000009</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>14.625334589262138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="C36" s="1">
+        <f>C35+B$22</f>
+        <v>8508.6666666666679</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>16.046692057833887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="1">
+        <f>C36+B$22</f>
+        <v>9262.3333333333339</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>17.468049526405633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="1">
+        <f>C37+B$22</f>
+        <v>10016</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>18.889406994977378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>2026</v>
+      </c>
+      <c r="C39" s="1">
+        <f>C38+B$22</f>
+        <v>10769.666666666666</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>20.310764463549123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>2027</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C39+B$22</f>
+        <v>11523.333333333332</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>21.732121932120869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2028</v>
+      </c>
+      <c r="C41" s="1">
+        <f>C40+B$22</f>
+        <v>12276.999999999998</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>23.153479400692614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>2029</v>
+      </c>
+      <c r="C42" s="1">
+        <f>C41+B$22</f>
+        <v>13030.666666666664</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>24.57483686926436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>2030</v>
+      </c>
+      <c r="C43" s="1">
+        <f>C42+B$22</f>
+        <v>13784.33333333333</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>25.996194337836105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>2031</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C43+B$22</f>
+        <v>14537.999999999996</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>27.417551806407854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>2032</v>
+      </c>
+      <c r="C45" s="1">
+        <f>C44+B$22</f>
+        <v>15291.666666666662</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>28.838909274979599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>2033</v>
+      </c>
+      <c r="C46" s="1">
+        <f>C45+B$22</f>
+        <v>16045.333333333328</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>30.260266743551345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>2034</v>
+      </c>
+      <c r="C47" s="1">
+        <f>C46+B$22</f>
+        <v>16798.999999999996</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>31.681624212123094</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>2035</v>
+      </c>
+      <c r="C48" s="1">
+        <f>C47+B$22</f>
+        <v>17552.666666666664</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>33.102981680694839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>2036</v>
+      </c>
+      <c r="C49" s="1">
+        <f>C48+B$22</f>
+        <v>18306.333333333332</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>34.524339149266595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>2037</v>
+      </c>
+      <c r="C50" s="1">
+        <f>C49+B$22</f>
+        <v>19060</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>35.945696617838344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>2038</v>
+      </c>
+      <c r="C51" s="1">
+        <f>C50+B$22</f>
+        <v>19813.666666666668</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>37.367054086410093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>2039</v>
+      </c>
+      <c r="C52" s="1">
+        <f>C51+B$22</f>
+        <v>20567.333333333336</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>38.788411554981842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>2040</v>
+      </c>
+      <c r="C53" s="1">
+        <f>C52+B$22</f>
+        <v>21321.000000000004</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>40.209769023553591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>2041</v>
+      </c>
+      <c r="C54" s="1">
+        <f>C53+B$22</f>
+        <v>22074.666666666672</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>41.63112649212534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>2042</v>
+      </c>
+      <c r="C55" s="1">
+        <f>C54+B$22</f>
+        <v>22828.333333333339</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>43.052483960697089</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>2043</v>
+      </c>
+      <c r="C56" s="1">
+        <f>C55+B$22</f>
+        <v>23582.000000000007</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>44.473841429268838</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>2044</v>
+      </c>
+      <c r="C57" s="1">
+        <f>C56+B$22</f>
+        <v>24335.666666666675</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>45.895198897840586</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>2045</v>
+      </c>
+      <c r="C58" s="1">
+        <f>C57+B$22</f>
+        <v>25089.333333333343</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>47.316556366412335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>2046</v>
+      </c>
+      <c r="C59" s="1">
+        <f>C58+B$22</f>
+        <v>25843.000000000011</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>48.737913834984084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>2047</v>
+      </c>
+      <c r="C60" s="1">
+        <f>C59+B$22</f>
+        <v>26596.666666666679</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>50.159271303555833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>2048</v>
+      </c>
+      <c r="C61" s="1">
+        <f>C60+B$22</f>
+        <v>27350.333333333347</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>51.580628772127582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>2049</v>
+      </c>
+      <c r="C62" s="1">
+        <f>C61+B$22</f>
+        <v>28104.000000000015</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>53.001986240699331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>2050</v>
+      </c>
+      <c r="C63" s="1">
+        <f>C62+B$22</f>
+        <v>28857.666666666682</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>54.42334370927108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>